--- a/ValueSet-medicationStatement-meds-codes-vs.xlsx
+++ b/ValueSet-medicationStatement-meds-codes-vs.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing SNOMED CT codes representing various medication-related procedures and findings (e.g., therapies, administration procedures, findings about use). **NOTE: These codes are generally NOT suitable for MedicationStatement.medication[x] which expects product/substance codes.**</t>
+    <t xml:space="preserve">ValueSet containing SNOMED CT codes representing various medication-related procedures and findings (e.g., therapies, administration procedures, findings about use). </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-medicationStatement-meds-codes-vs.xlsx
+++ b/ValueSet-medicationStatement-meds-codes-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -102,82 +103,49 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>413081008</t>
-  </si>
-  <si>
-    <t>Administration of prophylactic clopidogrel (procedure)</t>
-  </si>
-  <si>
     <t>308116003</t>
   </si>
   <si>
     <t>Antihypertensive therapy (procedure)</t>
   </si>
   <si>
+    <t>182764009</t>
+  </si>
+  <si>
+    <t>Anticoagulant therapy (procedure)</t>
+  </si>
+  <si>
+    <t>1237404009</t>
+  </si>
+  <si>
+    <t>Uses hormone method of contraception (finding)</t>
+  </si>
+  <si>
+    <t>315053001</t>
+  </si>
+  <si>
+    <t>Administration of prophylactic statin (procedure)</t>
+  </si>
+  <si>
     <t>722045009</t>
   </si>
   <si>
     <t>Warfarin therapy (procedure)</t>
   </si>
   <si>
-    <t>1335906002</t>
-  </si>
-  <si>
-    <t>Rivaroxaban therapy (procedure)</t>
-  </si>
-  <si>
-    <t>1335908001</t>
-  </si>
-  <si>
-    <t>Apixaban therapy (procedure)</t>
-  </si>
-  <si>
-    <t>1338036007</t>
-  </si>
-  <si>
-    <t>Edoxaban therapy (procedure)</t>
-  </si>
-  <si>
-    <t>182764009</t>
-  </si>
-  <si>
-    <t>Anticoagulant therapy (procedure)</t>
-  </si>
-  <si>
-    <t>315053001</t>
-  </si>
-  <si>
-    <t>Administration of prophylactic statin (procedure)</t>
-  </si>
-  <si>
-    <t>443464003</t>
-  </si>
-  <si>
-    <t>Low molecular weight heparin therapy (procedure)</t>
-  </si>
-  <si>
-    <t>735127005</t>
-  </si>
-  <si>
-    <t>Dipyridamole therapy (procedure)</t>
-  </si>
-  <si>
-    <t>1237404009</t>
-  </si>
-  <si>
-    <t>Uses hormone method of contraception (finding)</t>
-  </si>
-  <si>
-    <t>416608005</t>
-  </si>
-  <si>
-    <t>Drug therapy (procedure)</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t>http://testSK.org/CodeSystem/medication-statement-cs</t>
   </si>
 </sst>
 </file>
@@ -444,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,74 +472,61 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="2">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-medicationStatement-meds-codes-vs.xlsx
+++ b/ValueSet-medicationStatement-meds-codes-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>308116003</t>
-  </si>
-  <si>
-    <t>Antihypertensive therapy (procedure)</t>
-  </si>
-  <si>
-    <t>182764009</t>
-  </si>
-  <si>
-    <t>Anticoagulant therapy (procedure)</t>
+    <t>372586001</t>
+  </si>
+  <si>
+    <t>Hypotensive agent (substance)</t>
+  </si>
+  <si>
+    <t>372862008</t>
+  </si>
+  <si>
+    <t>Anticoagulant (substance)</t>
   </si>
   <si>
     <t>1237404009</t>
@@ -121,16 +121,28 @@
     <t>Uses hormone method of contraception (finding)</t>
   </si>
   <si>
-    <t>315053001</t>
-  </si>
-  <si>
-    <t>Administration of prophylactic statin (procedure)</t>
-  </si>
-  <si>
-    <t>722045009</t>
-  </si>
-  <si>
-    <t>Warfarin therapy (procedure)</t>
+    <t>372912004</t>
+  </si>
+  <si>
+    <t>Substance with 3-hydroxy-3-methylglutaryl-coenzyme A reductase inhibitor mechanism of action (substance)</t>
+  </si>
+  <si>
+    <t>372756006</t>
+  </si>
+  <si>
+    <t>Warfarin (substance)</t>
+  </si>
+  <si>
+    <t>386952008</t>
+  </si>
+  <si>
+    <t>Clopidogrel (substance)</t>
+  </si>
+  <si>
+    <t>387458008</t>
+  </si>
+  <si>
+    <t>Aspirin (substance)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -412,7 +424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,18 +484,34 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -505,12 +533,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +551,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
